--- a/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block2_250ms.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block2_250ms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="121">
   <si>
     <t>Fixation Duration_alligator.bmp_target_Sum</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:U115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7757,6 +7757,387 @@
       </c>
       <c r="U109">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K110" t="s">
+        <v>70</v>
+      </c>
+      <c r="L110" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" t="s">
+        <v>72</v>
+      </c>
+      <c r="N110" t="s">
+        <v>73</v>
+      </c>
+      <c r="O110" t="s">
+        <v>74</v>
+      </c>
+      <c r="P110" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>76</v>
+      </c>
+      <c r="R110" t="s">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s">
+        <v>79</v>
+      </c>
+      <c r="U110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>133</v>
+      </c>
+      <c r="B111">
+        <v>2.1</v>
+      </c>
+      <c r="C111">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D111">
+        <v>2.62</v>
+      </c>
+      <c r="E111">
+        <v>2.78</v>
+      </c>
+      <c r="F111">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G111">
+        <v>1.03</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>0.39</v>
+      </c>
+      <c r="J111">
+        <v>2.71</v>
+      </c>
+      <c r="K111">
+        <v>2.37</v>
+      </c>
+      <c r="L111">
+        <v>2.72</v>
+      </c>
+      <c r="M111">
+        <v>1.28</v>
+      </c>
+      <c r="N111">
+        <v>2.27</v>
+      </c>
+      <c r="O111">
+        <v>2.1</v>
+      </c>
+      <c r="P111">
+        <v>1.17</v>
+      </c>
+      <c r="Q111">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="R111">
+        <v>1.03</v>
+      </c>
+      <c r="S111" t="s">
+        <v>20</v>
+      </c>
+      <c r="T111">
+        <v>2.63</v>
+      </c>
+      <c r="U111">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s">
+        <v>87</v>
+      </c>
+      <c r="I112" t="s">
+        <v>88</v>
+      </c>
+      <c r="J112" t="s">
+        <v>89</v>
+      </c>
+      <c r="K112" t="s">
+        <v>90</v>
+      </c>
+      <c r="L112" t="s">
+        <v>91</v>
+      </c>
+      <c r="M112" t="s">
+        <v>92</v>
+      </c>
+      <c r="N112" t="s">
+        <v>93</v>
+      </c>
+      <c r="O112" t="s">
+        <v>94</v>
+      </c>
+      <c r="P112" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>96</v>
+      </c>
+      <c r="R112" t="s">
+        <v>97</v>
+      </c>
+      <c r="S112" t="s">
+        <v>98</v>
+      </c>
+      <c r="T112" t="s">
+        <v>99</v>
+      </c>
+      <c r="U112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>134</v>
+      </c>
+      <c r="B113">
+        <v>2.98</v>
+      </c>
+      <c r="C113">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D113">
+        <v>2.97</v>
+      </c>
+      <c r="E113">
+        <v>2.93</v>
+      </c>
+      <c r="F113">
+        <v>2.78</v>
+      </c>
+      <c r="G113">
+        <v>2.71</v>
+      </c>
+      <c r="H113">
+        <v>2.85</v>
+      </c>
+      <c r="I113">
+        <v>2.04</v>
+      </c>
+      <c r="J113">
+        <v>2.64</v>
+      </c>
+      <c r="K113">
+        <v>2.79</v>
+      </c>
+      <c r="L113">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M113">
+        <v>0.79</v>
+      </c>
+      <c r="N113" t="s">
+        <v>20</v>
+      </c>
+      <c r="O113">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="P113">
+        <v>2.7</v>
+      </c>
+      <c r="Q113">
+        <v>1.96</v>
+      </c>
+      <c r="R113">
+        <v>2.68</v>
+      </c>
+      <c r="S113">
+        <v>2.76</v>
+      </c>
+      <c r="T113" t="s">
+        <v>20</v>
+      </c>
+      <c r="U113">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" t="s">
+        <v>106</v>
+      </c>
+      <c r="H114" t="s">
+        <v>107</v>
+      </c>
+      <c r="I114" t="s">
+        <v>108</v>
+      </c>
+      <c r="J114" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" t="s">
+        <v>110</v>
+      </c>
+      <c r="L114" t="s">
+        <v>111</v>
+      </c>
+      <c r="M114" t="s">
+        <v>112</v>
+      </c>
+      <c r="N114" t="s">
+        <v>113</v>
+      </c>
+      <c r="O114" t="s">
+        <v>114</v>
+      </c>
+      <c r="P114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>116</v>
+      </c>
+      <c r="R114" t="s">
+        <v>117</v>
+      </c>
+      <c r="S114" t="s">
+        <v>118</v>
+      </c>
+      <c r="T114" t="s">
+        <v>119</v>
+      </c>
+      <c r="U114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>135</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>0.92</v>
+      </c>
+      <c r="D115">
+        <v>1.78</v>
+      </c>
+      <c r="E115">
+        <v>0.59</v>
+      </c>
+      <c r="F115">
+        <v>2.66</v>
+      </c>
+      <c r="G115">
+        <v>1.54</v>
+      </c>
+      <c r="H115">
+        <v>1.87</v>
+      </c>
+      <c r="I115">
+        <v>1.35</v>
+      </c>
+      <c r="J115">
+        <v>0.8</v>
+      </c>
+      <c r="K115">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L115" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115">
+        <v>0.23</v>
+      </c>
+      <c r="N115">
+        <v>2.31</v>
+      </c>
+      <c r="O115">
+        <v>2.98</v>
+      </c>
+      <c r="P115">
+        <v>1.66</v>
+      </c>
+      <c r="Q115">
+        <v>1.4</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2.25</v>
+      </c>
+      <c r="T115">
+        <v>2.68</v>
+      </c>
+      <c r="U115">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
